--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>497222.7619086868</v>
+        <v>494659.7415727817</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10.76127025329505</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>263.7039249234862</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>48.08949420613992</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>103.6683201420549</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>130.2804306019406</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,7 +832,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>105.4271970852988</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>90.54072426910606</v>
+        <v>357.2133322732637</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>50.45810906647856</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>47.48608598307592</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>133.1259608258394</v>
+        <v>25.40438461540617</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>135.0842186341626</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>202.6656554769874</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>75.12653431054498</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>13.72582864853782</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>20.9284728855285</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>114.2173032139418</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>41.74133133758713</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>27.31547498186424</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>156.5238857907026</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>121.6761271205435</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>106.9094576655908</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>33.55293486399881</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>25.52471385612597</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>22.04658882052576</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>914.3945931199664</v>
+        <v>394.8580066177523</v>
       </c>
       <c r="C2" t="n">
-        <v>914.3945931199664</v>
+        <v>394.8580066177523</v>
       </c>
       <c r="D2" t="n">
-        <v>914.3945931199664</v>
+        <v>383.988036664929</v>
       </c>
       <c r="E2" t="n">
-        <v>528.6063405217222</v>
+        <v>383.988036664929</v>
       </c>
       <c r="F2" t="n">
-        <v>117.6204357321147</v>
+        <v>383.988036664929</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4325,7 +4325,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2389.064874253757</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2135.483813517937</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2030.768338626972</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>1677.999683356858</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X2" t="n">
-        <v>1304.533925095778</v>
+        <v>1171.597178657686</v>
       </c>
       <c r="Y2" t="n">
-        <v>914.3945931199664</v>
+        <v>781.4578466818741</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>801.944955774447</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330612</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>662.7751904765217</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>662.7751904765217</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765217</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941286</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1427.370595322101</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1427.370595322101</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>1138.252257825939</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V4" t="n">
-        <v>883.5677696200519</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="W4" t="n">
-        <v>883.5677696200519</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="X4" t="n">
-        <v>883.5677696200519</v>
+        <v>1185.478088371216</v>
       </c>
       <c r="Y4" t="n">
-        <v>662.7751904765217</v>
+        <v>964.6855092276854</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>993.7429799877386</v>
+        <v>1582.523854133142</v>
       </c>
       <c r="C5" t="n">
-        <v>624.780463047327</v>
+        <v>1213.56133719273</v>
       </c>
       <c r="D5" t="n">
-        <v>624.780463047327</v>
+        <v>1213.56133719273</v>
       </c>
       <c r="E5" t="n">
-        <v>624.780463047327</v>
+        <v>827.7730845944857</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583054</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.80857831294</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.34282005186</v>
+        <v>1582.523854133142</v>
       </c>
       <c r="Y5" t="n">
-        <v>1380.34282005186</v>
+        <v>1582.523854133142</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>127.7128549540954</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143496</v>
+        <v>312.4344762351454</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>607.1380332666172</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>970.4000522258373</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1357.685180822783</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>641.9376744406312</v>
+        <v>376.0561848661681</v>
       </c>
       <c r="C7" t="n">
-        <v>473.0014915127243</v>
+        <v>376.0561848661681</v>
       </c>
       <c r="D7" t="n">
-        <v>473.0014915127243</v>
+        <v>376.0561848661681</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>376.0561848661681</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>376.0561848661681</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>208.0697201744467</v>
       </c>
       <c r="H7" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1588.480376657249</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1588.480376657249</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1588.480376657249</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1588.480376657249</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>1333.795888451362</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W7" t="n">
-        <v>1044.378718414401</v>
+        <v>824.8383149077156</v>
       </c>
       <c r="X7" t="n">
-        <v>1044.378718414401</v>
+        <v>596.8487640096982</v>
       </c>
       <c r="Y7" t="n">
-        <v>823.5861392708709</v>
+        <v>376.0561848661681</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2084.87146565651</v>
+        <v>909.696546067094</v>
       </c>
       <c r="C8" t="n">
-        <v>1715.908948716098</v>
+        <v>540.7340291266823</v>
       </c>
       <c r="D8" t="n">
-        <v>1357.643250109348</v>
+        <v>540.7340291266823</v>
       </c>
       <c r="E8" t="n">
-        <v>971.8549975111034</v>
+        <v>154.9457765284381</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926624</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926624</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926624</v>
+        <v>2022.53079966241</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.87146565651</v>
+        <v>1669.762144392296</v>
       </c>
       <c r="X8" t="n">
-        <v>2084.87146565651</v>
+        <v>1296.296386131216</v>
       </c>
       <c r="Y8" t="n">
-        <v>2084.87146565651</v>
+        <v>1296.296386131216</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310612</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>367.9721493962183</v>
+        <v>653.2836669058703</v>
       </c>
       <c r="C10" t="n">
-        <v>367.9721493962183</v>
+        <v>484.3474839779634</v>
       </c>
       <c r="D10" t="n">
-        <v>367.9721493962183</v>
+        <v>484.3474839779634</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9721493962183</v>
+        <v>336.4343903955703</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312195</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>1106.171449474726</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V10" t="n">
-        <v>1106.171449474726</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="W10" t="n">
-        <v>816.7542794377657</v>
+        <v>834.93213173611</v>
       </c>
       <c r="X10" t="n">
-        <v>588.7647285397484</v>
+        <v>834.93213173611</v>
       </c>
       <c r="Y10" t="n">
-        <v>367.9721493962183</v>
+        <v>834.93213173611</v>
       </c>
     </row>
     <row r="11">
@@ -5033,13 +5033,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5057,13 +5057,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>620.8230468926974</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,55 +5410,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474262</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>432.9862109052762</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
@@ -5476,10 +5476,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876688</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>430.7826650753331</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>282.8695714929399</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>135.9796239950296</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5738,37 +5738,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>815.6105350483875</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>665.4938956360518</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>517.5808020536587</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>370.6908545557483</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>203.4947552706282</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>2106.003314093041</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1851.318825887154</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1561.901655850193</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5990,7 +5990,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6078,7 +6078,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474262</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
         <v>402.7245934908939</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,10 +6944,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>119.599202296584</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="38">
@@ -7163,31 +7163,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>424.9938751277886</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>424.9938751277886</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>257.7977758426685</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>116.0859446848666</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="41">
@@ -7394,37 +7394,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>211.0329012241554</v>
+        <v>193.327346787835</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154988</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>14.25823202432731</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>147.8437778494678</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>224.08393832808</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>92.12028678808285</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>211.9838267404993</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>31.2037448089894</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>123.7828069546817</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>112.9792378643596</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016457</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>129.6605885985416</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F25" t="n">
-        <v>144.5956654067404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>58.15585306139384</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>60.337363433037</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25363,10 +25363,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>59.21924749803978</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>965013.1322883725</v>
+        <v>965013.1322883724</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1035821.298219893</v>
+        <v>1035821.298219894</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1035821.298219894</v>
+        <v>1035821.298219893</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1035821.298219894</v>
+        <v>1035821.298219893</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1035821.298219893</v>
+        <v>1035821.298219894</v>
       </c>
     </row>
     <row r="14">
@@ -26323,28 +26323,28 @@
         <v>383394.634852753</v>
       </c>
       <c r="F2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.634852753</v>
       </c>
       <c r="G2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="H2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.6348527531</v>
       </c>
       <c r="I2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="J2" t="n">
         <v>383394.6348527529</v>
       </c>
       <c r="K2" t="n">
+        <v>383394.6348527528</v>
+      </c>
+      <c r="L2" t="n">
         <v>383394.634852753</v>
       </c>
-      <c r="L2" t="n">
-        <v>383394.6348527528</v>
-      </c>
       <c r="M2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="N2" t="n">
         <v>383394.634852753</v>
@@ -26353,7 +26353,7 @@
         <v>383394.634852753</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.6348527527</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90558.97983407919</v>
+        <v>90558.9798340791</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719678</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719676</v>
+        <v>7507.368461719678</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
@@ -26448,7 +26448,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719677</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-943668.4389867234</v>
+        <v>-943854.8323752627</v>
       </c>
       <c r="C6" t="n">
-        <v>163943.2046989459</v>
+        <v>163943.2046989457</v>
       </c>
       <c r="D6" t="n">
-        <v>163943.2046989457</v>
+        <v>163943.2046989458</v>
       </c>
       <c r="E6" t="n">
-        <v>-232720.7050574198</v>
+        <v>-232755.4429828554</v>
       </c>
       <c r="F6" t="n">
-        <v>274764.7365671263</v>
+        <v>274729.9986416905</v>
       </c>
       <c r="G6" t="n">
-        <v>274764.7365671262</v>
+        <v>274729.9986416906</v>
       </c>
       <c r="H6" t="n">
-        <v>274764.7365671261</v>
+        <v>274729.9986416906</v>
       </c>
       <c r="I6" t="n">
-        <v>274764.7365671261</v>
+        <v>274729.9986416905</v>
       </c>
       <c r="J6" t="n">
-        <v>107159.5587571436</v>
+        <v>107124.8208317079</v>
       </c>
       <c r="K6" t="n">
-        <v>274764.7365671262</v>
+        <v>274729.9986416903</v>
       </c>
       <c r="L6" t="n">
-        <v>274764.7365671261</v>
+        <v>274729.9986416905</v>
       </c>
       <c r="M6" t="n">
-        <v>142157.4428381995</v>
+        <v>142122.7049127637</v>
       </c>
       <c r="N6" t="n">
-        <v>274764.7365671262</v>
+        <v>274729.9986416905</v>
       </c>
       <c r="O6" t="n">
-        <v>274764.7365671262</v>
+        <v>274729.9986416905</v>
       </c>
       <c r="P6" t="n">
-        <v>274764.7365671261</v>
+        <v>274729.9986416902</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>343.9217713673879</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>158.5686907740938</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>49.55154957999667</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>89.23526327643862</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,10 +27622,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>316.3353214726054</v>
+        <v>49.66271346844775</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>96.79340008865029</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>54.07148643649771</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>273.7500849158721</v>
+        <v>381.4716611263053</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>10.33682938876862</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>83.5614986442132</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,28 +32312,28 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>433.9798411722591</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32798,10 +32798,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,10 +33515,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,10 +33752,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>508.7132618620056</v>
+        <v>491.0077074256852</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34793,10 +34793,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>77.23845291524476</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.584832100039</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>577.9642335061964</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36446,10 +36446,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,10 +37163,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,10 +37400,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
